--- a/tests/test_uncertainty_framework.xlsx
+++ b/tests/test_uncertainty_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh\projects\atomica\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3770DB6-9E62-46C7-8F6C-3AA2B62E8681}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94189DC1-03A9-4B53-AD13-8DD85DE2276E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="2670" windowWidth="26235" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,17 @@
     <sheet name="Parameters" sheetId="6" r:id="rId6"/>
     <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -913,9 +919,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -953,9 +959,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -988,26 +994,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1040,26 +1029,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1238,7 +1210,7 @@
   </sheetPr>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1760,7 +1732,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,9 +1814,7 @@
       <c r="E3" s="4">
         <v>0</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
+      <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
         <v>73</v>
       </c>
@@ -1890,9 +1860,7 @@
       <c r="E5" s="4">
         <v>0</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>78</v>
       </c>
@@ -1938,9 +1906,7 @@
       <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
         <v>82</v>
       </c>
@@ -1963,9 +1929,7 @@
       <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
+      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
         <v>74</v>
@@ -2015,9 +1979,7 @@
       <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
         <v>74</v>
@@ -2145,7 +2107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+    <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
